--- a/src/main/resources/works.xlsx
+++ b/src/main/resources/works.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Title</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>4.4 Виконання планових наукових досліджень із звітністю у формах: наукова стаття в журналах</t>
-  </si>
-  <si>
-    <t>Страницы,конференция</t>
   </si>
   <si>
     <t>Тези3</t>
@@ -425,11 +422,12 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
@@ -441,7 +439,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -450,13 +448,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -464,7 +462,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -473,47 +471,47 @@
         <v>42869</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>42870</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>42871</v>
@@ -522,13 +520,13 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/works.xlsx
+++ b/src/main/resources/works.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Title</t>
   </si>
@@ -37,36 +37,18 @@
     <t>Employees</t>
   </si>
   <si>
-    <t>Тези</t>
-  </si>
-  <si>
     <t>Админов А.А.</t>
   </si>
   <si>
-    <t>Тези доповіді в збірнику 1</t>
-  </si>
-  <si>
     <t>3.1 Розробка навчальних планів</t>
   </si>
   <si>
     <t>Издательство,конференция,страницы</t>
   </si>
   <si>
-    <t>Тези2</t>
-  </si>
-  <si>
-    <t>Тези доповіді в збірнику 2</t>
-  </si>
-  <si>
     <t>4.4 Виконання планових наукових досліджень із звітністю у формах: наукова стаття в журналах</t>
   </si>
   <si>
-    <t>Тези3</t>
-  </si>
-  <si>
-    <t>Тези доповіді в збірнику 3</t>
-  </si>
-  <si>
     <t>4.5 Виконання планових наукових досліджень із звітністю у формах: наукова стаття в реферованих виданнях</t>
   </si>
   <si>
@@ -77,6 +59,18 @@
   </si>
   <si>
     <t>Доцентов Д.Д.</t>
+  </si>
+  <si>
+    <t>Программирование на Assembler</t>
+  </si>
+  <si>
+    <t>Программирование c++</t>
+  </si>
+  <si>
+    <t>Системы управления базами данных</t>
+  </si>
+  <si>
+    <t>Тези доповіді в збірнику 5</t>
   </si>
 </sst>
 </file>
@@ -422,7 +416,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,8 +424,8 @@
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
     <col min="7" max="7" width="28.85546875" customWidth="1"/>
     <col min="8" max="8" width="29.85546875" customWidth="1"/>
@@ -462,71 +456,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>42869</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>42870</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>42871</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
